--- a/data_finish/pib_baseado_poder_de_compra/Retired_countries_pib_baseado_poder_de_compra.xlsx
+++ b/data_finish/pib_baseado_poder_de_compra/Retired_countries_pib_baseado_poder_de_compra.xlsx
@@ -19,28 +19,28 @@
     <t>Retired Countries</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
     <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
   </si>
 </sst>
 </file>
